--- a/questionnaires/1-ipip-50_item_sample/ipip-50_item_sample-i_am.xlsx
+++ b/questionnaires/1-ipip-50_item_sample/ipip-50_item_sample-i_am.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="IPIP Big 5 Sample Questionnaire" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Score Values for .csv" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
   <si>
     <t xml:space="preserve">IPIP 50 Item Big Five Sample Questionnaire</t>
   </si>
@@ -290,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use right-click → Paste Special → Paste Special… to paste just the score here, then use File → Save As… to save that as a .csv file</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2655,7 @@
         <v>-10</v>
       </c>
       <c r="D64" s="15" t="str">
-        <f aca="false">IF(C64&lt;=20,"Very Low",IF(C64&lt;=40,"Low",IF(C64&lt;60,"Average",IF(C64&lt;80,"High","Very High"))))</f>
+        <f aca="false">IF(C64&lt;=20,"Very Low",IF(C64&lt;=36,"Low",IF(C64&lt;=46,"A Little Low",IF(C64&lt;=53,"Average",IF(C64&lt;=63,"A Little High",IF(C64&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
@@ -2668,7 +2672,7 @@
         <v>-10</v>
       </c>
       <c r="D65" s="15" t="str">
-        <f aca="false">IF(C65&lt;=20,"Very Low",IF(C65&lt;=40,"Low",IF(C65&lt;60,"Average",IF(C65&lt;80,"High","Very High"))))</f>
+        <f aca="false">IF(C65&lt;=20,"Very Low",IF(C65&lt;=36,"Low",IF(C65&lt;=46,"A Little Low",IF(C65&lt;=53,"Average",IF(C65&lt;=63,"A Little High",IF(C65&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
@@ -2685,7 +2689,7 @@
         <v>-10</v>
       </c>
       <c r="D66" s="15" t="str">
-        <f aca="false">IF(C66&lt;=20,"Very Low",IF(C66&lt;=40,"Low",IF(C66&lt;60,"Average",IF(C66&lt;80,"High","Very High"))))</f>
+        <f aca="false">IF(C66&lt;=20,"Very Low",IF(C66&lt;=36,"Low",IF(C66&lt;=46,"A Little Low",IF(C66&lt;=53,"Average",IF(C66&lt;=63,"A Little High",IF(C66&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
@@ -2702,7 +2706,7 @@
         <v>-10</v>
       </c>
       <c r="D67" s="15" t="str">
-        <f aca="false">IF(C67&lt;=20,"Very Low",IF(C67&lt;=40,"Low",IF(C67&lt;60,"Average",IF(C67&lt;80,"High","Very High"))))</f>
+        <f aca="false">IF(C67&lt;=20,"Very Low",IF(C67&lt;=36,"Low",IF(C67&lt;=46,"A Little Low",IF(C67&lt;=53,"Average",IF(C67&lt;=63,"A Little High",IF(C67&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
@@ -2719,7 +2723,7 @@
         <v>-10</v>
       </c>
       <c r="D68" s="15" t="str">
-        <f aca="false">IF(C68&lt;=20,"Very Low",IF(C68&lt;=40,"Low",IF(C68&lt;60,"Average",IF(C68&lt;80,"High","Very High"))))</f>
+        <f aca="false">IF(C68&lt;=20,"Very Low",IF(C68&lt;=36,"Low",IF(C68&lt;=46,"A Little Low",IF(C68&lt;=53,"Average",IF(C68&lt;=63,"A Little High",IF(C68&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
@@ -2766,4 +2770,33 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/questionnaires/1-ipip-50_item_sample/ipip-50_item_sample-i_am.xlsx
+++ b/questionnaires/1-ipip-50_item_sample/ipip-50_item_sample-i_am.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">IPIP 50 Item Big Five Sample Questionnaire</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+  <si>
+    <t xml:space="preserve">IPIP 50 Item Big Five Sample Questionnaire – “I Am”</t>
   </si>
   <si>
     <t xml:space="preserve">Enter an “x” in Precisely One Column for Each Item</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">I am interested in people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Leave their belongings around.</t>
+    <t xml:space="preserve">Leave my belongings around.</t>
   </si>
   <si>
     <t xml:space="preserve">I am relaxed most of the time.</t>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve">-----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">----------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
     <r>
@@ -245,7 +242,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Items were copied from </t>
+      <t xml:space="preserve">Items copied from </t>
     </r>
     <r>
       <rPr>
@@ -266,6 +263,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Results appear below, starting on row 101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Score:</t>
   </si>
   <si>
@@ -278,19 +278,29 @@
     <t xml:space="preserve">Meaning</t>
   </si>
   <si>
-    <t xml:space="preserve">The sheet uses these values to validate the input:</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Used for input validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Use right-click → Paste Special → Paste Special… to paste just the score here, then use File → Save As… to save that as a .csv file</t>
@@ -305,7 +315,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -366,13 +376,19 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +486,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,8 +506,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -567,7 +587,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:AO125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -590,6 +610,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,28 +678,35 @@
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="AH4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -688,32 +721,39 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="3"/>
+      <c r="AH5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B5),J5,IF(ISTEXT(C5),K5,IF(ISTEXT(D5),L5,IF(ISTEXT(E5),M5,IF(ISTEXT(F5),N5,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="3"/>
+      <c r="AJ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B5),AJ5,IF(ISTEXT(C5),AK5,IF(ISTEXT(D5),AL5,IF(ISTEXT(E5),AM5,IF(ISTEXT(F5),AN5,0)))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -727,29 +767,36 @@
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="AH6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B6),J6,IF(ISTEXT(C6),K6,IF(ISTEXT(D6),L6,IF(ISTEXT(E6),M6,IF(ISTEXT(F6),N6,0)))))</f>
+      <c r="AJ6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B6),AJ6,IF(ISTEXT(C6),AK6,IF(ISTEXT(D6),AL6,IF(ISTEXT(E6),AM6,IF(ISTEXT(F6),AN6,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -765,29 +812,36 @@
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="AH7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B7),J7,IF(ISTEXT(C7),K7,IF(ISTEXT(D7),L7,IF(ISTEXT(E7),M7,IF(ISTEXT(F7),N7,0)))))</f>
+      <c r="AJ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B7),AJ7,IF(ISTEXT(C7),AK7,IF(ISTEXT(D7),AL7,IF(ISTEXT(E7),AM7,IF(ISTEXT(F7),AN7,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -803,29 +857,36 @@
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="AH8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B8),J8,IF(ISTEXT(C8),K8,IF(ISTEXT(D8),L8,IF(ISTEXT(E8),M8,IF(ISTEXT(F8),N8,0)))))</f>
+      <c r="AJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B8),AJ8,IF(ISTEXT(C8),AK8,IF(ISTEXT(D8),AL8,IF(ISTEXT(E8),AM8,IF(ISTEXT(F8),AN8,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -841,29 +902,36 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="AH9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B9),J9,IF(ISTEXT(C9),K9,IF(ISTEXT(D9),L9,IF(ISTEXT(E9),M9,IF(ISTEXT(F9),N9,0)))))</f>
+      <c r="AJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B9),AJ9,IF(ISTEXT(C9),AK9,IF(ISTEXT(D9),AL9,IF(ISTEXT(E9),AM9,IF(ISTEXT(F9),AN9,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -879,29 +947,36 @@
       <c r="G10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="AH10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B10),J10,IF(ISTEXT(C10),K10,IF(ISTEXT(D10),L10,IF(ISTEXT(E10),M10,IF(ISTEXT(F10),N10,0)))))</f>
+      <c r="AJ10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B10),AJ10,IF(ISTEXT(C10),AK10,IF(ISTEXT(D10),AL10,IF(ISTEXT(E10),AM10,IF(ISTEXT(F10),AN10,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -917,29 +992,36 @@
       <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="AH11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B11),J11,IF(ISTEXT(C11),K11,IF(ISTEXT(D11),L11,IF(ISTEXT(E11),M11,IF(ISTEXT(F11),N11,0)))))</f>
+      <c r="AJ11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B11),AJ11,IF(ISTEXT(C11),AK11,IF(ISTEXT(D11),AL11,IF(ISTEXT(E11),AM11,IF(ISTEXT(F11),AN11,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -955,29 +1037,36 @@
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="AH12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B12),J12,IF(ISTEXT(C12),K12,IF(ISTEXT(D12),L12,IF(ISTEXT(E12),M12,IF(ISTEXT(F12),N12,0)))))</f>
+      <c r="AJ12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B12),AJ12,IF(ISTEXT(C12),AK12,IF(ISTEXT(D12),AL12,IF(ISTEXT(E12),AM12,IF(ISTEXT(F12),AN12,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -993,29 +1082,36 @@
       <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="AH13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B13),J13,IF(ISTEXT(C13),K13,IF(ISTEXT(D13),L13,IF(ISTEXT(E13),M13,IF(ISTEXT(F13),N13,0)))))</f>
+      <c r="AJ13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B13),AJ13,IF(ISTEXT(C13),AK13,IF(ISTEXT(D13),AL13,IF(ISTEXT(E13),AM13,IF(ISTEXT(F13),AN13,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1031,29 +1127,36 @@
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="AH14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="AI14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B14),J14,IF(ISTEXT(C14),K14,IF(ISTEXT(D14),L14,IF(ISTEXT(E14),M14,IF(ISTEXT(F14),N14,0)))))</f>
+      <c r="AJ14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B14),AJ14,IF(ISTEXT(C14),AK14,IF(ISTEXT(D14),AL14,IF(ISTEXT(E14),AM14,IF(ISTEXT(F14),AN14,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1069,29 +1172,36 @@
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="AH15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B15),J15,IF(ISTEXT(C15),K15,IF(ISTEXT(D15),L15,IF(ISTEXT(E15),M15,IF(ISTEXT(F15),N15,0)))))</f>
+      <c r="AJ15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B15),AJ15,IF(ISTEXT(C15),AK15,IF(ISTEXT(D15),AL15,IF(ISTEXT(E15),AM15,IF(ISTEXT(F15),AN15,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1107,29 +1217,36 @@
       <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="AH16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B16),J16,IF(ISTEXT(C16),K16,IF(ISTEXT(D16),L16,IF(ISTEXT(E16),M16,IF(ISTEXT(F16),N16,0)))))</f>
+      <c r="AJ16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B16),AJ16,IF(ISTEXT(C16),AK16,IF(ISTEXT(D16),AL16,IF(ISTEXT(E16),AM16,IF(ISTEXT(F16),AN16,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1145,29 +1262,36 @@
       <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="AH17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B17),J17,IF(ISTEXT(C17),K17,IF(ISTEXT(D17),L17,IF(ISTEXT(E17),M17,IF(ISTEXT(F17),N17,0)))))</f>
+      <c r="AJ17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B17),AJ17,IF(ISTEXT(C17),AK17,IF(ISTEXT(D17),AL17,IF(ISTEXT(E17),AM17,IF(ISTEXT(F17),AN17,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1183,29 +1307,36 @@
       <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="AH18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B18),J18,IF(ISTEXT(C18),K18,IF(ISTEXT(D18),L18,IF(ISTEXT(E18),M18,IF(ISTEXT(F18),N18,0)))))</f>
+      <c r="AJ18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B18),AJ18,IF(ISTEXT(C18),AK18,IF(ISTEXT(D18),AL18,IF(ISTEXT(E18),AM18,IF(ISTEXT(F18),AN18,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,29 +1352,36 @@
       <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="AH19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B19),J19,IF(ISTEXT(C19),K19,IF(ISTEXT(D19),L19,IF(ISTEXT(E19),M19,IF(ISTEXT(F19),N19,0)))))</f>
+      <c r="AJ19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B19),AJ19,IF(ISTEXT(C19),AK19,IF(ISTEXT(D19),AL19,IF(ISTEXT(E19),AM19,IF(ISTEXT(F19),AN19,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1259,29 +1397,36 @@
       <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="AH20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B20),J20,IF(ISTEXT(C20),K20,IF(ISTEXT(D20),L20,IF(ISTEXT(E20),M20,IF(ISTEXT(F20),N20,0)))))</f>
+      <c r="AJ20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B20),AJ20,IF(ISTEXT(C20),AK20,IF(ISTEXT(D20),AL20,IF(ISTEXT(E20),AM20,IF(ISTEXT(F20),AN20,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1297,29 +1442,36 @@
       <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="AH21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B21),J21,IF(ISTEXT(C21),K21,IF(ISTEXT(D21),L21,IF(ISTEXT(E21),M21,IF(ISTEXT(F21),N21,0)))))</f>
+      <c r="AJ21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B21),AJ21,IF(ISTEXT(C21),AK21,IF(ISTEXT(D21),AL21,IF(ISTEXT(E21),AM21,IF(ISTEXT(F21),AN21,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1335,29 +1487,36 @@
       <c r="G22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="AH22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="AI22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B22),J22,IF(ISTEXT(C22),K22,IF(ISTEXT(D22),L22,IF(ISTEXT(E22),M22,IF(ISTEXT(F22),N22,0)))))</f>
+      <c r="AJ22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B22),AJ22,IF(ISTEXT(C22),AK22,IF(ISTEXT(D22),AL22,IF(ISTEXT(E22),AM22,IF(ISTEXT(F22),AN22,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1373,29 +1532,36 @@
       <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="AH23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B23),J23,IF(ISTEXT(C23),K23,IF(ISTEXT(D23),L23,IF(ISTEXT(E23),M23,IF(ISTEXT(F23),N23,0)))))</f>
+      <c r="AJ23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B23),AJ23,IF(ISTEXT(C23),AK23,IF(ISTEXT(D23),AL23,IF(ISTEXT(E23),AM23,IF(ISTEXT(F23),AN23,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1411,29 +1577,36 @@
       <c r="G24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="AH24" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="AI24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B24),J24,IF(ISTEXT(C24),K24,IF(ISTEXT(D24),L24,IF(ISTEXT(E24),M24,IF(ISTEXT(F24),N24,0)))))</f>
+      <c r="AJ24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B24),AJ24,IF(ISTEXT(C24),AK24,IF(ISTEXT(D24),AL24,IF(ISTEXT(E24),AM24,IF(ISTEXT(F24),AN24,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1449,29 +1622,36 @@
       <c r="G25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="AH25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B25),J25,IF(ISTEXT(C25),K25,IF(ISTEXT(D25),L25,IF(ISTEXT(E25),M25,IF(ISTEXT(F25),N25,0)))))</f>
+      <c r="AJ25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B25),AJ25,IF(ISTEXT(C25),AK25,IF(ISTEXT(D25),AL25,IF(ISTEXT(E25),AM25,IF(ISTEXT(F25),AN25,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1487,29 +1667,36 @@
       <c r="G26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="AH26" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="AI26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B26),J26,IF(ISTEXT(C26),K26,IF(ISTEXT(D26),L26,IF(ISTEXT(E26),M26,IF(ISTEXT(F26),N26,0)))))</f>
+      <c r="AJ26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B26),AJ26,IF(ISTEXT(C26),AK26,IF(ISTEXT(D26),AL26,IF(ISTEXT(E26),AM26,IF(ISTEXT(F26),AN26,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1525,29 +1712,36 @@
       <c r="G27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="AH27" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="AI27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B27),J27,IF(ISTEXT(C27),K27,IF(ISTEXT(D27),L27,IF(ISTEXT(E27),M27,IF(ISTEXT(F27),N27,0)))))</f>
+      <c r="AJ27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B27),AJ27,IF(ISTEXT(C27),AK27,IF(ISTEXT(D27),AL27,IF(ISTEXT(E27),AM27,IF(ISTEXT(F27),AN27,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1563,29 +1757,36 @@
       <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="AH28" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="AI28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B28),J28,IF(ISTEXT(C28),K28,IF(ISTEXT(D28),L28,IF(ISTEXT(E28),M28,IF(ISTEXT(F28),N28,0)))))</f>
+      <c r="AJ28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO28" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B28),AJ28,IF(ISTEXT(C28),AK28,IF(ISTEXT(D28),AL28,IF(ISTEXT(E28),AM28,IF(ISTEXT(F28),AN28,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1601,29 +1802,36 @@
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="AH29" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="AI29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B29),J29,IF(ISTEXT(C29),K29,IF(ISTEXT(D29),L29,IF(ISTEXT(E29),M29,IF(ISTEXT(F29),N29,0)))))</f>
+      <c r="AJ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B29),AJ29,IF(ISTEXT(C29),AK29,IF(ISTEXT(D29),AL29,IF(ISTEXT(E29),AM29,IF(ISTEXT(F29),AN29,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1639,29 +1847,36 @@
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="AH30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="AI30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B30),J30,IF(ISTEXT(C30),K30,IF(ISTEXT(D30),L30,IF(ISTEXT(E30),M30,IF(ISTEXT(F30),N30,0)))))</f>
+      <c r="AJ30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B30),AJ30,IF(ISTEXT(C30),AK30,IF(ISTEXT(D30),AL30,IF(ISTEXT(E30),AM30,IF(ISTEXT(F30),AN30,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1677,29 +1892,36 @@
       <c r="G31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="AH31" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B31),J31,IF(ISTEXT(C31),K31,IF(ISTEXT(D31),L31,IF(ISTEXT(E31),M31,IF(ISTEXT(F31),N31,0)))))</f>
+      <c r="AJ31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B31),AJ31,IF(ISTEXT(C31),AK31,IF(ISTEXT(D31),AL31,IF(ISTEXT(E31),AM31,IF(ISTEXT(F31),AN31,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1715,29 +1937,36 @@
       <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="AH32" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="AI32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B32),J32,IF(ISTEXT(C32),K32,IF(ISTEXT(D32),L32,IF(ISTEXT(E32),M32,IF(ISTEXT(F32),N32,0)))))</f>
+      <c r="AJ32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B32),AJ32,IF(ISTEXT(C32),AK32,IF(ISTEXT(D32),AL32,IF(ISTEXT(E32),AM32,IF(ISTEXT(F32),AN32,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1753,29 +1982,36 @@
       <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="AH33" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="AI33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B33),J33,IF(ISTEXT(C33),K33,IF(ISTEXT(D33),L33,IF(ISTEXT(E33),M33,IF(ISTEXT(F33),N33,0)))))</f>
+      <c r="AJ33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO33" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B33),AJ33,IF(ISTEXT(C33),AK33,IF(ISTEXT(D33),AL33,IF(ISTEXT(E33),AM33,IF(ISTEXT(F33),AN33,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1791,29 +2027,36 @@
       <c r="G34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="AH34" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="AI34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B34),J34,IF(ISTEXT(C34),K34,IF(ISTEXT(D34),L34,IF(ISTEXT(E34),M34,IF(ISTEXT(F34),N34,0)))))</f>
+      <c r="AJ34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B34),AJ34,IF(ISTEXT(C34),AK34,IF(ISTEXT(D34),AL34,IF(ISTEXT(E34),AM34,IF(ISTEXT(F34),AN34,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1829,29 +2072,36 @@
       <c r="G35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="AH35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="AI35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B35),J35,IF(ISTEXT(C35),K35,IF(ISTEXT(D35),L35,IF(ISTEXT(E35),M35,IF(ISTEXT(F35),N35,0)))))</f>
+      <c r="AJ35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B35),AJ35,IF(ISTEXT(C35),AK35,IF(ISTEXT(D35),AL35,IF(ISTEXT(E35),AM35,IF(ISTEXT(F35),AN35,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1867,29 +2117,36 @@
       <c r="G36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="AH36" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="AI36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B36),J36,IF(ISTEXT(C36),K36,IF(ISTEXT(D36),L36,IF(ISTEXT(E36),M36,IF(ISTEXT(F36),N36,0)))))</f>
+      <c r="AJ36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B36),AJ36,IF(ISTEXT(C36),AK36,IF(ISTEXT(D36),AL36,IF(ISTEXT(E36),AM36,IF(ISTEXT(F36),AN36,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1905,29 +2162,36 @@
       <c r="G37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="AH37" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="AI37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B37),J37,IF(ISTEXT(C37),K37,IF(ISTEXT(D37),L37,IF(ISTEXT(E37),M37,IF(ISTEXT(F37),N37,0)))))</f>
+      <c r="AJ37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO37" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B37),AJ37,IF(ISTEXT(C37),AK37,IF(ISTEXT(D37),AL37,IF(ISTEXT(E37),AM37,IF(ISTEXT(F37),AN37,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1943,29 +2207,36 @@
       <c r="G38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="AH38" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="AI38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B38),J38,IF(ISTEXT(C38),K38,IF(ISTEXT(D38),L38,IF(ISTEXT(E38),M38,IF(ISTEXT(F38),N38,0)))))</f>
+      <c r="AJ38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO38" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B38),AJ38,IF(ISTEXT(C38),AK38,IF(ISTEXT(D38),AL38,IF(ISTEXT(E38),AM38,IF(ISTEXT(F38),AN38,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1981,29 +2252,36 @@
       <c r="G39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="AH39" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="AI39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B39),J39,IF(ISTEXT(C39),K39,IF(ISTEXT(D39),L39,IF(ISTEXT(E39),M39,IF(ISTEXT(F39),N39,0)))))</f>
+      <c r="AJ39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO39" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B39),AJ39,IF(ISTEXT(C39),AK39,IF(ISTEXT(D39),AL39,IF(ISTEXT(E39),AM39,IF(ISTEXT(F39),AN39,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2019,29 +2297,36 @@
       <c r="G40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="AH40" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="AI40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B40),J40,IF(ISTEXT(C40),K40,IF(ISTEXT(D40),L40,IF(ISTEXT(E40),M40,IF(ISTEXT(F40),N40,0)))))</f>
+      <c r="AJ40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B40),AJ40,IF(ISTEXT(C40),AK40,IF(ISTEXT(D40),AL40,IF(ISTEXT(E40),AM40,IF(ISTEXT(F40),AN40,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2057,29 +2342,36 @@
       <c r="G41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="AH41" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="AI41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B41),J41,IF(ISTEXT(C41),K41,IF(ISTEXT(D41),L41,IF(ISTEXT(E41),M41,IF(ISTEXT(F41),N41,0)))))</f>
+      <c r="AJ41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B41),AJ41,IF(ISTEXT(C41),AK41,IF(ISTEXT(D41),AL41,IF(ISTEXT(E41),AM41,IF(ISTEXT(F41),AN41,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2095,29 +2387,36 @@
       <c r="G42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="AH42" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="AI42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B42),J42,IF(ISTEXT(C42),K42,IF(ISTEXT(D42),L42,IF(ISTEXT(E42),M42,IF(ISTEXT(F42),N42,0)))))</f>
+      <c r="AJ42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B42),AJ42,IF(ISTEXT(C42),AK42,IF(ISTEXT(D42),AL42,IF(ISTEXT(E42),AM42,IF(ISTEXT(F42),AN42,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2133,29 +2432,36 @@
       <c r="G43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="AH43" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="AI43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B43),J43,IF(ISTEXT(C43),K43,IF(ISTEXT(D43),L43,IF(ISTEXT(E43),M43,IF(ISTEXT(F43),N43,0)))))</f>
+      <c r="AJ43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO43" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B43),AJ43,IF(ISTEXT(C43),AK43,IF(ISTEXT(D43),AL43,IF(ISTEXT(E43),AM43,IF(ISTEXT(F43),AN43,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2171,29 +2477,36 @@
       <c r="G44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="AH44" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="AI44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B44),J44,IF(ISTEXT(C44),K44,IF(ISTEXT(D44),L44,IF(ISTEXT(E44),M44,IF(ISTEXT(F44),N44,0)))))</f>
+      <c r="AJ44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO44" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B44),AJ44,IF(ISTEXT(C44),AK44,IF(ISTEXT(D44),AL44,IF(ISTEXT(E44),AM44,IF(ISTEXT(F44),AN44,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2209,29 +2522,36 @@
       <c r="G45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="AH45" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="AI45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B45),J45,IF(ISTEXT(C45),K45,IF(ISTEXT(D45),L45,IF(ISTEXT(E45),M45,IF(ISTEXT(F45),N45,0)))))</f>
+      <c r="AJ45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN45" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO45" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B45),AJ45,IF(ISTEXT(C45),AK45,IF(ISTEXT(D45),AL45,IF(ISTEXT(E45),AM45,IF(ISTEXT(F45),AN45,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2247,29 +2567,36 @@
       <c r="G46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="AH46" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="AI46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B46),J46,IF(ISTEXT(C46),K46,IF(ISTEXT(D46),L46,IF(ISTEXT(E46),M46,IF(ISTEXT(F46),N46,0)))))</f>
+      <c r="AJ46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO46" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B46),AJ46,IF(ISTEXT(C46),AK46,IF(ISTEXT(D46),AL46,IF(ISTEXT(E46),AM46,IF(ISTEXT(F46),AN46,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2285,29 +2612,36 @@
       <c r="G47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="AH47" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="AI47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B47),J47,IF(ISTEXT(C47),K47,IF(ISTEXT(D47),L47,IF(ISTEXT(E47),M47,IF(ISTEXT(F47),N47,0)))))</f>
+      <c r="AJ47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO47" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B47),AJ47,IF(ISTEXT(C47),AK47,IF(ISTEXT(D47),AL47,IF(ISTEXT(E47),AM47,IF(ISTEXT(F47),AN47,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2323,29 +2657,36 @@
       <c r="G48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="AH48" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="AI48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B48),J48,IF(ISTEXT(C48),K48,IF(ISTEXT(D48),L48,IF(ISTEXT(E48),M48,IF(ISTEXT(F48),N48,0)))))</f>
+      <c r="AJ48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO48" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B48),AJ48,IF(ISTEXT(C48),AK48,IF(ISTEXT(D48),AL48,IF(ISTEXT(E48),AM48,IF(ISTEXT(F48),AN48,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2361,29 +2702,36 @@
       <c r="G49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="AH49" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="AI49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B49),J49,IF(ISTEXT(C49),K49,IF(ISTEXT(D49),L49,IF(ISTEXT(E49),M49,IF(ISTEXT(F49),N49,0)))))</f>
+      <c r="AJ49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO49" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B49),AJ49,IF(ISTEXT(C49),AK49,IF(ISTEXT(D49),AL49,IF(ISTEXT(E49),AM49,IF(ISTEXT(F49),AN49,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2399,29 +2747,36 @@
       <c r="G50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="AH50" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="AI50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B50),J50,IF(ISTEXT(C50),K50,IF(ISTEXT(D50),L50,IF(ISTEXT(E50),M50,IF(ISTEXT(F50),N50,0)))))</f>
+      <c r="AJ50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B50),AJ50,IF(ISTEXT(C50),AK50,IF(ISTEXT(D50),AL50,IF(ISTEXT(E50),AM50,IF(ISTEXT(F50),AN50,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2437,29 +2792,36 @@
       <c r="G51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="AH51" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="AI51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B51),J51,IF(ISTEXT(C51),K51,IF(ISTEXT(D51),L51,IF(ISTEXT(E51),M51,IF(ISTEXT(F51),N51,0)))))</f>
+      <c r="AJ51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO51" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B51),AJ51,IF(ISTEXT(C51),AK51,IF(ISTEXT(D51),AL51,IF(ISTEXT(E51),AM51,IF(ISTEXT(F51),AN51,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2475,29 +2837,36 @@
       <c r="G52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="AH52" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="AI52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B52),J52,IF(ISTEXT(C52),K52,IF(ISTEXT(D52),L52,IF(ISTEXT(E52),M52,IF(ISTEXT(F52),N52,0)))))</f>
+      <c r="AJ52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO52" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B52),AJ52,IF(ISTEXT(C52),AK52,IF(ISTEXT(D52),AL52,IF(ISTEXT(E52),AM52,IF(ISTEXT(F52),AN52,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2513,29 +2882,36 @@
       <c r="G53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="AH53" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="AI53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B53),J53,IF(ISTEXT(C53),K53,IF(ISTEXT(D53),L53,IF(ISTEXT(E53),M53,IF(ISTEXT(F53),N53,0)))))</f>
+      <c r="AJ53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO53" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B53),AJ53,IF(ISTEXT(C53),AK53,IF(ISTEXT(D53),AL53,IF(ISTEXT(E53),AM53,IF(ISTEXT(F53),AN53,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2551,29 +2927,36 @@
       <c r="G54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="AH54" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="AI54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M54" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3" t="n">
-        <f aca="false">IF(ISTEXT(B54),J54,IF(ISTEXT(C54),K54,IF(ISTEXT(D54),L54,IF(ISTEXT(E54),M54,IF(ISTEXT(F54),N54,0)))))</f>
+      <c r="AJ54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO54" s="3" t="n">
+        <f aca="false">IF(ISTEXT(B54),AJ54,IF(ISTEXT(C54),AK54,IF(ISTEXT(D54),AL54,IF(ISTEXT(E54),AM54,IF(ISTEXT(F54),AN54,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2594,171 +2977,190 @@
       <c r="G56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B101" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D101" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="1" t="n">
-        <f aca="false">SUM(O5+O10+O15+O20+O25+O30+O35+O40+O45+O50)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B64,5),2)</f>
+      <c r="B102" s="1" t="n">
+        <f aca="false">SUM(AO5+AO10+AO15+AO20+AO25+AO30+AO35+AO40+AO45+AO50)</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B102,5),2)</f>
         <v>-10</v>
       </c>
-      <c r="D64" s="15" t="str">
-        <f aca="false">IF(C64&lt;=20,"Very Low",IF(C64&lt;=36,"Low",IF(C64&lt;=46,"A Little Low",IF(C64&lt;=53,"Average",IF(C64&lt;=63,"A Little High",IF(C64&lt;=80,"High","Very High"))))))</f>
+      <c r="D102" s="16" t="str">
+        <f aca="false">IF(C102&lt;=20,"Very Low",IF(C102&lt;=36,"Low",IF(C102&lt;=46,"A Little Low",IF(C102&lt;=53,"Average",IF(C102&lt;=63,"A Little High",IF(C102&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="1" t="n">
-        <f aca="false">SUM(O6+O11+O16+O21+O26+O31+O36+O41+O46+O51)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B65,5),2)</f>
+      <c r="B103" s="1" t="n">
+        <f aca="false">SUM(AO6+AO11+AO16+AO21+AO26+AO31+AO36+AO41+AO46+AO51)</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B103,5),2)</f>
         <v>-10</v>
       </c>
-      <c r="D65" s="15" t="str">
-        <f aca="false">IF(C65&lt;=20,"Very Low",IF(C65&lt;=36,"Low",IF(C65&lt;=46,"A Little Low",IF(C65&lt;=53,"Average",IF(C65&lt;=63,"A Little High",IF(C65&lt;=80,"High","Very High"))))))</f>
+      <c r="D103" s="16" t="str">
+        <f aca="false">IF(C103&lt;=20,"Very Low",IF(C103&lt;=36,"Low",IF(C103&lt;=46,"A Little Low",IF(C103&lt;=53,"Average",IF(C103&lt;=63,"A Little High",IF(C103&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="1" t="n">
-        <f aca="false">SUM(O7+O12+O17+O22+O27+O32+O37+O42+O47+O52)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B66,5),2)</f>
+      <c r="B104" s="1" t="n">
+        <f aca="false">SUM(AO7+AO12+AO17+AO22+AO27+AO32+AO37+AO42+AO47+AO52)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B104,5),2)</f>
         <v>-10</v>
       </c>
-      <c r="D66" s="15" t="str">
-        <f aca="false">IF(C66&lt;=20,"Very Low",IF(C66&lt;=36,"Low",IF(C66&lt;=46,"A Little Low",IF(C66&lt;=53,"Average",IF(C66&lt;=63,"A Little High",IF(C66&lt;=80,"High","Very High"))))))</f>
+      <c r="D104" s="16" t="str">
+        <f aca="false">IF(C104&lt;=20,"Very Low",IF(C104&lt;=36,"Low",IF(C104&lt;=46,"A Little Low",IF(C104&lt;=53,"Average",IF(C104&lt;=63,"A Little High",IF(C104&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="1" t="n">
-        <f aca="false">SUM(O8+O13+O18+O23+O28+O33+O38+O43+O48+O53)</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B67,5),2)</f>
+      <c r="B105" s="1" t="n">
+        <f aca="false">SUM(AO8+AO13+AO18+AO23+AO28+AO33+AO38+AO43+AO48+AO53)</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B105,5),2)</f>
         <v>-10</v>
       </c>
-      <c r="D67" s="15" t="str">
-        <f aca="false">IF(C67&lt;=20,"Very Low",IF(C67&lt;=36,"Low",IF(C67&lt;=46,"A Little Low",IF(C67&lt;=53,"Average",IF(C67&lt;=63,"A Little High",IF(C67&lt;=80,"High","Very High"))))))</f>
+      <c r="D105" s="16" t="str">
+        <f aca="false">IF(C105&lt;=20,"Very Low",IF(C105&lt;=36,"Low",IF(C105&lt;=46,"A Little Low",IF(C105&lt;=53,"Average",IF(C105&lt;=63,"A Little High",IF(C105&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="1" t="n">
-        <f aca="false">SUM(O9+O14+O19+O24+O29+O34+O39+O44+O49+O54)</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B68,5),2)</f>
+      <c r="B106" s="1" t="n">
+        <f aca="false">SUM(AO9+AO14+AO19+AO24+AO29+AO34+AO39+AO44+AO49+AO54)</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <f aca="false">PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B106,5),2)</f>
         <v>-10</v>
       </c>
-      <c r="D68" s="15" t="str">
-        <f aca="false">IF(C68&lt;=20,"Very Low",IF(C68&lt;=36,"Low",IF(C68&lt;=46,"A Little Low",IF(C68&lt;=53,"Average",IF(C68&lt;=63,"A Little High",IF(C68&lt;=80,"High","Very High"))))))</f>
+      <c r="D106" s="16" t="str">
+        <f aca="false">IF(C106&lt;=20,"Very Low",IF(C106&lt;=36,"Low",IF(C106&lt;=46,"A Little Low",IF(C106&lt;=53,"Average",IF(C106&lt;=63,"A Little High",IF(C106&lt;=80,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A56:F56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="A58:O58"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B5:F51 C52:F52 B53:F55" type="list">
-      <formula1>'IPIP Big 5 Sample Questionnaire'!$B$75:$E$75</formula1>
+    <dataValidation allowBlank="false" error="Only &quot;x&quot; or &quot;X&quot; are valid in this cell!" errorTitle="ERROR" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot; or &quot;X&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B55:F55" type="list">
+      <formula1>'IPIP Big 5 Sample Questionnaire'!$B$125:$C$125</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B52" type="list">
-      <formula1>'IPIP Big 5 Sample Questionnaire'!$B$75:$E$75</formula1>
+    <dataValidation allowBlank="true" error="Only &quot;x&quot; or &quot;X&quot; are valid in this cell!" errorTitle="ERROR" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot; or &quot;X&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B5:F54" type="list">
+      <formula1>'IPIP Big 5 Sample Questionnaire'!$B$125:$C$125</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2787,7 +3189,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
